--- a/ExcelJs/ExcelJSoutput.xlsx
+++ b/ExcelJs/ExcelJSoutput.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="92">
   <si>
     <t>Refrence Number:PA1834000013</t>
   </si>
@@ -61,112 +61,232 @@
     <t>amounts</t>
   </si>
   <si>
-    <t xml:space="preserve">Not Known </t>
-  </si>
-  <si>
-    <t>2016-12-04T00:00:00.000Z</t>
-  </si>
-  <si>
-    <t>2016-12-10T00:00:00.000Z</t>
-  </si>
-  <si>
-    <t>2016-04-24T00:00:00.000Z</t>
-  </si>
-  <si>
-    <t>2016-04-30T00:00:00.000Z</t>
-  </si>
-  <si>
-    <t>2016-02-28T00:00:00.000Z</t>
-  </si>
-  <si>
-    <t>2016-03-12T00:00:00.000Z</t>
-  </si>
-  <si>
-    <t>2016-03-13T00:00:00.000Z</t>
-  </si>
-  <si>
-    <t>2016-03-19T00:00:00.000Z</t>
-  </si>
-  <si>
-    <t>2016-10-30T00:00:00.000Z</t>
-  </si>
-  <si>
-    <t>2016-11-05T00:00:00.000Z</t>
-  </si>
-  <si>
-    <t>2016-06-05T00:00:00.000Z</t>
-  </si>
-  <si>
-    <t>2016-06-18T00:00:00.000Z</t>
-  </si>
-  <si>
-    <t>2016-07-03T00:00:00.000Z</t>
-  </si>
-  <si>
-    <t>2016-07-16T00:00:00.000Z</t>
-  </si>
-  <si>
-    <t>2016-12-11T00:00:00.000Z</t>
-  </si>
-  <si>
-    <t>2016-12-17T00:00:00.000Z</t>
-  </si>
-  <si>
-    <t>2016-07-17T00:00:00.000Z</t>
-  </si>
-  <si>
-    <t>2016-07-23T00:00:00.000Z</t>
-  </si>
-  <si>
-    <t>2016-11-24T00:00:00.000Z</t>
-  </si>
-  <si>
-    <t>2016-11-26T00:00:00.000Z</t>
-  </si>
-  <si>
-    <t>2016-11-27T00:00:00.000Z</t>
-  </si>
-  <si>
-    <t>2016-11-28T00:00:00.000Z</t>
-  </si>
-  <si>
-    <t>2016-06-12T00:00:00.000Z</t>
-  </si>
-  <si>
-    <t>2016-05-01T00:00:00.000Z</t>
-  </si>
-  <si>
-    <t>2016-05-14T00:00:00.000Z</t>
-  </si>
-  <si>
-    <t>2016-09-11T00:00:00.000Z</t>
-  </si>
-  <si>
-    <t>2016-09-17T00:00:00.000Z</t>
-  </si>
-  <si>
-    <t>2016-06-26T00:00:00.000Z</t>
-  </si>
-  <si>
-    <t>2016-07-02T00:00:00.000Z</t>
-  </si>
-  <si>
-    <t>2016-12-25T00:00:00.000Z</t>
-  </si>
-  <si>
-    <t>2016-12-31T00:00:00.000Z</t>
-  </si>
-  <si>
-    <t>2016-08-14T00:00:00.000Z</t>
-  </si>
-  <si>
-    <t>2016-08-20T00:00:00.000Z</t>
-  </si>
-  <si>
-    <t>2016-10-16T00:00:00.000Z</t>
-  </si>
-  <si>
-    <t>2016-10-29T00:00:00.000Z</t>
+    <t/>
+  </si>
+  <si>
+    <t>2016-12-04</t>
+  </si>
+  <si>
+    <t>2016-12-10</t>
+  </si>
+  <si>
+    <t>$198.90</t>
+  </si>
+  <si>
+    <t>$2,472.20</t>
+  </si>
+  <si>
+    <t>2016-04-24</t>
+  </si>
+  <si>
+    <t>2016-04-30</t>
+  </si>
+  <si>
+    <t>$13,904.00</t>
+  </si>
+  <si>
+    <t>2016-02-28</t>
+  </si>
+  <si>
+    <t>2016-03-12</t>
+  </si>
+  <si>
+    <t>$53,936.40</t>
+  </si>
+  <si>
+    <t>2016-03-13</t>
+  </si>
+  <si>
+    <t>2016-03-19</t>
+  </si>
+  <si>
+    <t>$63.84</t>
+  </si>
+  <si>
+    <t>2016-10-30</t>
+  </si>
+  <si>
+    <t>2016-11-05</t>
+  </si>
+  <si>
+    <t>$2,146.96</t>
+  </si>
+  <si>
+    <t>2016-06-05</t>
+  </si>
+  <si>
+    <t>2016-06-18</t>
+  </si>
+  <si>
+    <t>$303,634.10</t>
+  </si>
+  <si>
+    <t>2016-07-03</t>
+  </si>
+  <si>
+    <t>2016-07-16</t>
+  </si>
+  <si>
+    <t>$213,180.25</t>
+  </si>
+  <si>
+    <t>2016-12-11</t>
+  </si>
+  <si>
+    <t>2016-12-17</t>
+  </si>
+  <si>
+    <t>$12,938.50</t>
+  </si>
+  <si>
+    <t>$4,408.00</t>
+  </si>
+  <si>
+    <t>2016-07-17</t>
+  </si>
+  <si>
+    <t>2016-07-23</t>
+  </si>
+  <si>
+    <t>$102,981.70</t>
+  </si>
+  <si>
+    <t>$17,993.00</t>
+  </si>
+  <si>
+    <t>$48,598.00</t>
+  </si>
+  <si>
+    <t>$62,016.34</t>
+  </si>
+  <si>
+    <t>$230.10</t>
+  </si>
+  <si>
+    <t>2016-11-24</t>
+  </si>
+  <si>
+    <t>2016-11-26</t>
+  </si>
+  <si>
+    <t>$85,506.93</t>
+  </si>
+  <si>
+    <t>$1,186.00</t>
+  </si>
+  <si>
+    <t>$47,939.78</t>
+  </si>
+  <si>
+    <t>$2,066.00</t>
+  </si>
+  <si>
+    <t>2016-11-27</t>
+  </si>
+  <si>
+    <t>2016-11-28</t>
+  </si>
+  <si>
+    <t>$7,618.00</t>
+  </si>
+  <si>
+    <t>$2,394.18</t>
+  </si>
+  <si>
+    <t>$49,879.20</t>
+  </si>
+  <si>
+    <t>$70,226.00</t>
+  </si>
+  <si>
+    <t>$592.20</t>
+  </si>
+  <si>
+    <t>$1,887.50</t>
+  </si>
+  <si>
+    <t>2016-06-12</t>
+  </si>
+  <si>
+    <t>$4,612.00</t>
+  </si>
+  <si>
+    <t>$490.10</t>
+  </si>
+  <si>
+    <t>$3,337.00</t>
+  </si>
+  <si>
+    <t>2016-05-01</t>
+  </si>
+  <si>
+    <t>2016-05-14</t>
+  </si>
+  <si>
+    <t>$54,642.00</t>
+  </si>
+  <si>
+    <t>$517.00</t>
+  </si>
+  <si>
+    <t>2016-09-11</t>
+  </si>
+  <si>
+    <t>2016-09-17</t>
+  </si>
+  <si>
+    <t>$26,599.00</t>
+  </si>
+  <si>
+    <t>2016-06-26</t>
+  </si>
+  <si>
+    <t>2016-07-02</t>
+  </si>
+  <si>
+    <t>$24,449.61</t>
+  </si>
+  <si>
+    <t>2016-12-25</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>$61,430.00</t>
+  </si>
+  <si>
+    <t>2016-08-14</t>
+  </si>
+  <si>
+    <t>2016-08-20</t>
+  </si>
+  <si>
+    <t>$184,156.00</t>
+  </si>
+  <si>
+    <t>$19,765.18</t>
+  </si>
+  <si>
+    <t>$5,515.50</t>
+  </si>
+  <si>
+    <t>$129,926.80</t>
+  </si>
+  <si>
+    <t>$2,009.50</t>
+  </si>
+  <si>
+    <t>2016-10-16</t>
+  </si>
+  <si>
+    <t>2016-10-29</t>
+  </si>
+  <si>
+    <t>$172,187.40</t>
+  </si>
+  <si>
+    <t>$30,737.00</t>
   </si>
 </sst>
 </file>
@@ -661,8 +781,8 @@
       <c r="E11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="4">
-        <v>198.9</v>
+      <c r="F11" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -681,8 +801,8 @@
       <c r="E12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="4">
-        <v>2472.2</v>
+      <c r="F12" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -693,16 +813,16 @@
         <v>16</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="4">
-        <v>13904</v>
+      <c r="F13" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -713,16 +833,16 @@
         <v>16</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="4">
-        <v>53936.4</v>
+      <c r="F14" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -733,16 +853,16 @@
         <v>16</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="4">
-        <v>63.84</v>
+      <c r="F15" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -753,16 +873,16 @@
         <v>16</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4">
-        <v>2146.96</v>
+      <c r="F16" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -773,16 +893,16 @@
         <v>16</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="4">
-        <v>303634.1</v>
+      <c r="F17" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -793,16 +913,16 @@
         <v>16</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="4">
-        <v>213180.25</v>
+      <c r="F18" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -813,16 +933,16 @@
         <v>16</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="4">
-        <v>12938.5</v>
+      <c r="F19" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -841,8 +961,8 @@
       <c r="E20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="4">
-        <v>4408</v>
+      <c r="F20" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -853,16 +973,16 @@
         <v>16</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="4">
-        <v>102981.7</v>
+      <c r="F21" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -873,16 +993,16 @@
         <v>16</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="4">
-        <v>17993</v>
+      <c r="F22" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -893,16 +1013,16 @@
         <v>16</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="4">
-        <v>48598</v>
+      <c r="F23" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -913,16 +1033,16 @@
         <v>16</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="4">
-        <v>62016.34</v>
+      <c r="F24" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -933,16 +1053,16 @@
         <v>16</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="4">
-        <v>230.1</v>
+      <c r="F25" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -953,16 +1073,16 @@
         <v>16</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="4">
-        <v>85506.93</v>
+      <c r="F26" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -973,16 +1093,16 @@
         <v>16</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="4">
-        <v>1186</v>
+      <c r="F27" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -993,16 +1113,16 @@
         <v>16</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F28" s="4">
-        <v>47939.78</v>
+      <c r="F28" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1013,16 +1133,16 @@
         <v>16</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="4">
-        <v>2066</v>
+      <c r="F29" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1033,16 +1153,16 @@
         <v>16</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="4">
-        <v>7618</v>
+      <c r="F30" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1061,8 +1181,8 @@
       <c r="E31" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="4">
-        <v>2394.18</v>
+      <c r="F31" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1073,16 +1193,16 @@
         <v>16</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="4">
-        <v>49879.2</v>
+      <c r="F32" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1093,16 +1213,16 @@
         <v>16</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="4">
-        <v>70226</v>
+      <c r="F33" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1113,16 +1233,16 @@
         <v>16</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F34" s="4">
-        <v>592.2</v>
+      <c r="F34" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1141,8 +1261,8 @@
       <c r="E35" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="4">
-        <v>1887.5</v>
+      <c r="F35" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1153,16 +1273,16 @@
         <v>16</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F36" s="4">
-        <v>4612</v>
+      <c r="F36" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1173,16 +1293,16 @@
         <v>16</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F37" s="4">
-        <v>490.1</v>
+      <c r="F37" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1193,16 +1313,16 @@
         <v>16</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F38" s="4">
-        <v>3337</v>
+      <c r="F38" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1213,16 +1333,16 @@
         <v>16</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="4">
-        <v>54642</v>
+      <c r="F39" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1233,16 +1353,16 @@
         <v>16</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F40" s="4">
-        <v>517</v>
+      <c r="F40" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1253,16 +1373,16 @@
         <v>16</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F41" s="4">
-        <v>26599</v>
+      <c r="F41" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1273,16 +1393,16 @@
         <v>16</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F42" s="4">
-        <v>24449.61</v>
+      <c r="F42" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1293,16 +1413,16 @@
         <v>16</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="4">
-        <v>61430</v>
+      <c r="F43" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1313,16 +1433,16 @@
         <v>16</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F44" s="4">
-        <v>184156</v>
+      <c r="F44" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1333,16 +1453,16 @@
         <v>16</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F45" s="4">
-        <v>19765.18</v>
+      <c r="F45" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1353,16 +1473,16 @@
         <v>16</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F46" s="4">
-        <v>5515.5</v>
+      <c r="F46" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1373,16 +1493,16 @@
         <v>16</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="4">
-        <v>129926.8</v>
+      <c r="F47" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1393,16 +1513,16 @@
         <v>16</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F48" s="4">
-        <v>2009.5</v>
+      <c r="F48" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1413,16 +1533,16 @@
         <v>16</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F49" s="4">
-        <v>172187.4</v>
+      <c r="F49" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1433,16 +1553,16 @@
         <v>16</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F50" s="4">
-        <v>30737</v>
+      <c r="F50" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
